--- a/TA buku/Results/Sentiwordnet/hasil_FOOD.xlsx
+++ b/TA buku/Results/Sentiwordnet/hasil_FOOD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="296">
   <si>
     <t>id</t>
   </si>
@@ -673,7 +673,7 @@
     <t>interesting</t>
   </si>
   <si>
-    <t>well</t>
+    <t>worth</t>
   </si>
   <si>
     <t>worth|worth</t>
@@ -685,7 +685,7 @@
     <t>great</t>
   </si>
   <si>
-    <t>overpriced</t>
+    <t>soggy</t>
   </si>
   <si>
     <t>great|price</t>
@@ -721,13 +721,10 @@
     <t>exceptional</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
     <t>nasty|small</t>
   </si>
   <si>
-    <t>like</t>
+    <t>-|-|-</t>
   </si>
   <si>
     <t>delight|delight|bargain</t>
@@ -772,6 +769,9 @@
     <t>good|good</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>trendy|trendy</t>
   </si>
   <si>
@@ -805,52 +805,55 @@
     <t>fresh|good|great|kimchi|salad</t>
   </si>
   <si>
+    <t>fishy|fishy|fishy|fishy|fishy|fishy</t>
+  </si>
+  <si>
+    <t>hot|hot|dog</t>
+  </si>
+  <si>
+    <t>stale</t>
+  </si>
+  <si>
+    <t>lousy|tiny</t>
+  </si>
+  <si>
+    <t>consistently</t>
+  </si>
+  <si>
+    <t>amazing|amazing</t>
+  </si>
+  <si>
+    <t>greasy|greasy|dry|loud|greasy</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>only|chicken</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>good|awesome|good|tempura|awesome</t>
+  </si>
+  <si>
+    <t>heavenly|heavenly|heavenly|heavenly|heavenly|heavenly|heavenly</t>
+  </si>
+  <si>
+    <t>prepared</t>
+  </si>
+  <si>
+    <t>dissapointing|dissapointing|dissapointing</t>
+  </si>
+  <si>
     <t>bland</t>
   </si>
   <si>
-    <t>hot|hot|dog</t>
-  </si>
-  <si>
-    <t>stale</t>
-  </si>
-  <si>
-    <t>lousy|tiny</t>
-  </si>
-  <si>
-    <t>consistently</t>
-  </si>
-  <si>
-    <t>amazing|amazing</t>
-  </si>
-  <si>
-    <t>greasy|greasy|dry|loud|greasy</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>only|chicken</t>
-  </si>
-  <si>
-    <t>more</t>
-  </si>
-  <si>
-    <t>good|awesome|good|tempura|awesome</t>
-  </si>
-  <si>
-    <t>heavenly</t>
-  </si>
-  <si>
-    <t>pretty</t>
-  </si>
-  <si>
-    <t>prepared</t>
-  </si>
-  <si>
     <t>incredible|incredible|incredible</t>
   </si>
   <si>
-    <t>cold</t>
+    <t>cold|cold</t>
   </si>
   <si>
     <t>fancy|good</t>
@@ -1296,10 +1299,10 @@
         <v>218</v>
       </c>
       <c r="E2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G2">
         <v>0.375</v>
@@ -1319,13 +1322,13 @@
         <v>219</v>
       </c>
       <c r="E3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G3">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1342,10 +1345,10 @@
         <v>220</v>
       </c>
       <c r="E4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G4">
         <v>0.5</v>
@@ -1365,10 +1368,10 @@
         <v>221</v>
       </c>
       <c r="E5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G5">
         <v>-0.625</v>
@@ -1388,10 +1391,10 @@
         <v>222</v>
       </c>
       <c r="E6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1411,13 +1414,13 @@
         <v>223</v>
       </c>
       <c r="E7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G7">
-        <v>0.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1434,10 +1437,10 @@
         <v>224</v>
       </c>
       <c r="E8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1457,10 +1460,10 @@
         <v>225</v>
       </c>
       <c r="E9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1480,10 +1483,10 @@
         <v>226</v>
       </c>
       <c r="E10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1503,10 +1506,10 @@
         <v>227</v>
       </c>
       <c r="E11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G11">
         <v>0.75</v>
@@ -1526,10 +1529,10 @@
         <v>228</v>
       </c>
       <c r="E12" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F12" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G12">
         <v>0.75</v>
@@ -1549,10 +1552,10 @@
         <v>229</v>
       </c>
       <c r="E13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F13" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G13">
         <v>-0.25</v>
@@ -1572,10 +1575,10 @@
         <v>230</v>
       </c>
       <c r="E14" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F14" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1595,10 +1598,10 @@
         <v>222</v>
       </c>
       <c r="E15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1618,10 +1621,10 @@
         <v>231</v>
       </c>
       <c r="E16" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F16" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1641,10 +1644,10 @@
         <v>232</v>
       </c>
       <c r="E17" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F17" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G17">
         <v>1.75</v>
@@ -1664,10 +1667,10 @@
         <v>233</v>
       </c>
       <c r="E18" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F18" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G18">
         <v>-0.25</v>
@@ -1687,10 +1690,10 @@
         <v>234</v>
       </c>
       <c r="E19" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F19" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G19">
         <v>0.25</v>
@@ -1707,13 +1710,13 @@
         <v>130</v>
       </c>
       <c r="D20" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="E20" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F20" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G20">
         <v>0.25</v>
@@ -1733,10 +1736,10 @@
         <v>231</v>
       </c>
       <c r="E21" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F21" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1753,13 +1756,13 @@
         <v>132</v>
       </c>
       <c r="D22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E22" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F22" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G22">
         <v>1.25</v>
@@ -1776,16 +1779,16 @@
         <v>133</v>
       </c>
       <c r="D23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E23" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F23" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G23">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1802,10 +1805,10 @@
         <v>228</v>
       </c>
       <c r="E24" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F24" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G24">
         <v>0.75</v>
@@ -1822,13 +1825,13 @@
         <v>135</v>
       </c>
       <c r="D25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E25" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F25" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1845,13 +1848,13 @@
         <v>136</v>
       </c>
       <c r="D26" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E26" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F26" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1871,10 +1874,10 @@
         <v>228</v>
       </c>
       <c r="E27" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F27" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G27">
         <v>0.75</v>
@@ -1891,13 +1894,13 @@
         <v>138</v>
       </c>
       <c r="D28" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E28" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F28" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G28">
         <v>0.625</v>
@@ -1917,10 +1920,10 @@
         <v>222</v>
       </c>
       <c r="E29" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F29" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1937,13 +1940,13 @@
         <v>140</v>
       </c>
       <c r="D30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E30" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F30" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G30">
         <v>-0.25</v>
@@ -1960,13 +1963,13 @@
         <v>141</v>
       </c>
       <c r="D31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E31" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F31" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G31">
         <v>0.5</v>
@@ -1983,13 +1986,13 @@
         <v>142</v>
       </c>
       <c r="D32" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E32" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F32" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G32">
         <v>0.625</v>
@@ -2006,13 +2009,13 @@
         <v>143</v>
       </c>
       <c r="D33" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E33" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F33" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G33">
         <v>-0.25</v>
@@ -2032,10 +2035,10 @@
         <v>222</v>
       </c>
       <c r="E34" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F34" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -2052,13 +2055,13 @@
         <v>145</v>
       </c>
       <c r="D35" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E35" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F35" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -2075,13 +2078,13 @@
         <v>146</v>
       </c>
       <c r="D36" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="E36" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F36" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G36">
         <v>0.25</v>
@@ -2101,10 +2104,10 @@
         <v>222</v>
       </c>
       <c r="E37" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F37" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2124,10 +2127,10 @@
         <v>222</v>
       </c>
       <c r="E38" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F38" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2144,13 +2147,13 @@
         <v>149</v>
       </c>
       <c r="D39" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E39" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F39" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2167,13 +2170,13 @@
         <v>150</v>
       </c>
       <c r="D40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E40" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F40" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G40">
         <v>0.75</v>
@@ -2190,13 +2193,13 @@
         <v>151</v>
       </c>
       <c r="D41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E41" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F41" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G41">
         <v>0.875</v>
@@ -2216,10 +2219,10 @@
         <v>228</v>
       </c>
       <c r="E42" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F42" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G42">
         <v>0.75</v>
@@ -2236,13 +2239,13 @@
         <v>153</v>
       </c>
       <c r="D43" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E43" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F43" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G43">
         <v>-0.5</v>
@@ -2259,13 +2262,13 @@
         <v>154</v>
       </c>
       <c r="D44" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E44" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F44" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G44">
         <v>0.5</v>
@@ -2282,13 +2285,13 @@
         <v>155</v>
       </c>
       <c r="D45" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E45" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F45" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G45">
         <v>0.5</v>
@@ -2305,13 +2308,13 @@
         <v>156</v>
       </c>
       <c r="D46" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E46" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F46" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G46">
         <v>1.5</v>
@@ -2328,13 +2331,13 @@
         <v>157</v>
       </c>
       <c r="D47" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E47" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F47" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G47">
         <v>1.5</v>
@@ -2350,11 +2353,14 @@
       <c r="C48" t="s">
         <v>158</v>
       </c>
+      <c r="D48" t="s">
+        <v>251</v>
+      </c>
       <c r="E48" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F48" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -2374,10 +2380,10 @@
         <v>252</v>
       </c>
       <c r="E49" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F49" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -2397,10 +2403,10 @@
         <v>253</v>
       </c>
       <c r="E50" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F50" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -2420,10 +2426,10 @@
         <v>254</v>
       </c>
       <c r="E51" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F51" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G51">
         <v>0.875</v>
@@ -2443,10 +2449,10 @@
         <v>228</v>
       </c>
       <c r="E52" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F52" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G52">
         <v>0.75</v>
@@ -2466,10 +2472,10 @@
         <v>255</v>
       </c>
       <c r="E53" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F53" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -2489,10 +2495,10 @@
         <v>256</v>
       </c>
       <c r="E54" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F54" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G54">
         <v>-0.75</v>
@@ -2512,10 +2518,10 @@
         <v>228</v>
       </c>
       <c r="E55" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F55" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G55">
         <v>0.75</v>
@@ -2535,10 +2541,10 @@
         <v>257</v>
       </c>
       <c r="E56" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F56" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G56">
         <v>-0.5</v>
@@ -2555,13 +2561,13 @@
         <v>167</v>
       </c>
       <c r="D57" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E57" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F57" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G57">
         <v>0.5</v>
@@ -2581,10 +2587,10 @@
         <v>258</v>
       </c>
       <c r="E58" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F58" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G58">
         <v>-0.625</v>
@@ -2600,11 +2606,14 @@
       <c r="C59" t="s">
         <v>169</v>
       </c>
+      <c r="D59" t="s">
+        <v>251</v>
+      </c>
       <c r="E59" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F59" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -2624,10 +2633,10 @@
         <v>259</v>
       </c>
       <c r="E60" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F60" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -2647,10 +2656,10 @@
         <v>228</v>
       </c>
       <c r="E61" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F61" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G61">
         <v>0.75</v>
@@ -2670,10 +2679,10 @@
         <v>260</v>
       </c>
       <c r="E62" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F62" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -2693,10 +2702,10 @@
         <v>261</v>
       </c>
       <c r="E63" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F63" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -2716,10 +2725,10 @@
         <v>262</v>
       </c>
       <c r="E64" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F64" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G64">
         <v>0.125</v>
@@ -2739,10 +2748,10 @@
         <v>228</v>
       </c>
       <c r="E65" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F65" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G65">
         <v>0.75</v>
@@ -2762,13 +2771,13 @@
         <v>263</v>
       </c>
       <c r="E66" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F66" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G66">
-        <v>-0.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2785,10 +2794,10 @@
         <v>264</v>
       </c>
       <c r="E67" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F67" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -2808,10 +2817,10 @@
         <v>265</v>
       </c>
       <c r="E68" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F68" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G68">
         <v>0.5</v>
@@ -2831,10 +2840,10 @@
         <v>266</v>
       </c>
       <c r="E69" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F69" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G69">
         <v>-0.75</v>
@@ -2854,10 +2863,10 @@
         <v>267</v>
       </c>
       <c r="E70" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F70" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -2877,10 +2886,10 @@
         <v>268</v>
       </c>
       <c r="E71" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F71" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -2900,10 +2909,10 @@
         <v>269</v>
       </c>
       <c r="E72" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F72" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G72">
         <v>-0.625</v>
@@ -2923,10 +2932,10 @@
         <v>270</v>
       </c>
       <c r="E73" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F73" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -2946,10 +2955,10 @@
         <v>231</v>
       </c>
       <c r="E74" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F74" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -2969,10 +2978,10 @@
         <v>271</v>
       </c>
       <c r="E75" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F75" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G75">
         <v>-0.5</v>
@@ -2992,10 +3001,10 @@
         <v>272</v>
       </c>
       <c r="E76" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F76" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -3012,13 +3021,13 @@
         <v>187</v>
       </c>
       <c r="D77" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E77" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F77" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -3038,10 +3047,10 @@
         <v>273</v>
       </c>
       <c r="E78" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F78" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G78">
         <v>3.25</v>
@@ -3061,10 +3070,10 @@
         <v>222</v>
       </c>
       <c r="E79" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F79" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -3084,10 +3093,10 @@
         <v>274</v>
       </c>
       <c r="E80" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F80" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -3104,16 +3113,16 @@
         <v>191</v>
       </c>
       <c r="D81" t="s">
-        <v>275</v>
+        <v>221</v>
       </c>
       <c r="E81" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F81" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G81">
-        <v>0.875</v>
+        <v>-0.625</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3127,13 +3136,13 @@
         <v>192</v>
       </c>
       <c r="D82" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E82" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F82" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G82">
         <v>1.5</v>
@@ -3150,13 +3159,13 @@
         <v>193</v>
       </c>
       <c r="D83" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E83" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F83" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G83">
         <v>0.625</v>
@@ -3176,10 +3185,10 @@
         <v>222</v>
       </c>
       <c r="E84" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F84" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -3199,10 +3208,10 @@
         <v>228</v>
       </c>
       <c r="E85" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F85" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G85">
         <v>0.75</v>
@@ -3219,16 +3228,16 @@
         <v>196</v>
       </c>
       <c r="D86" t="s">
-        <v>237</v>
+        <v>276</v>
       </c>
       <c r="E86" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F86" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G86">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3242,16 +3251,16 @@
         <v>197</v>
       </c>
       <c r="D87" t="s">
-        <v>237</v>
+        <v>277</v>
       </c>
       <c r="E87" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F87" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G87">
-        <v>-0.25</v>
+        <v>-0.375</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3265,13 +3274,13 @@
         <v>198</v>
       </c>
       <c r="D88" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E88" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F88" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -3288,16 +3297,16 @@
         <v>199</v>
       </c>
       <c r="D89" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E89" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F89" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G89">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3311,13 +3320,13 @@
         <v>200</v>
       </c>
       <c r="D90" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E90" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F90" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G90">
         <v>0.375</v>
@@ -3334,13 +3343,13 @@
         <v>201</v>
       </c>
       <c r="D91" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E91" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F91" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G91">
         <v>1.5</v>
@@ -3357,13 +3366,13 @@
         <v>202</v>
       </c>
       <c r="D92" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E92" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F92" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G92">
         <v>1.625</v>
@@ -3380,13 +3389,13 @@
         <v>203</v>
       </c>
       <c r="D93" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E93" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F93" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G93">
         <v>-0.625</v>
@@ -3403,13 +3412,13 @@
         <v>204</v>
       </c>
       <c r="D94" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E94" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F94" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -3426,13 +3435,13 @@
         <v>205</v>
       </c>
       <c r="D95" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E95" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F95" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -3449,13 +3458,13 @@
         <v>206</v>
       </c>
       <c r="D96" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E96" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F96" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -3472,13 +3481,13 @@
         <v>207</v>
       </c>
       <c r="D97" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E97" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F97" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G97">
         <v>2</v>
@@ -3495,13 +3504,13 @@
         <v>208</v>
       </c>
       <c r="D98" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E98" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F98" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -3521,10 +3530,10 @@
         <v>256</v>
       </c>
       <c r="E99" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F99" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G99">
         <v>-0.75</v>
@@ -3541,13 +3550,13 @@
         <v>210</v>
       </c>
       <c r="D100" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E100" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F100" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -3564,13 +3573,13 @@
         <v>211</v>
       </c>
       <c r="D101" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E101" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F101" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -3587,13 +3596,13 @@
         <v>212</v>
       </c>
       <c r="D102" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E102" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F102" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G102">
         <v>0.75</v>
@@ -3613,10 +3622,10 @@
         <v>228</v>
       </c>
       <c r="E103" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F103" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G103">
         <v>-0.75</v>
@@ -3633,13 +3642,13 @@
         <v>214</v>
       </c>
       <c r="D104" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E104" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F104" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -3656,13 +3665,13 @@
         <v>215</v>
       </c>
       <c r="D105" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E105" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F105" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -3682,10 +3691,10 @@
         <v>222</v>
       </c>
       <c r="E106" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F106" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -3702,13 +3711,13 @@
         <v>217</v>
       </c>
       <c r="D107" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E107" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F107" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G107">
         <v>0.75</v>
